--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515526.9035913895</v>
+        <v>514879.9310502065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9729432.398375968</v>
+        <v>9729432.398375966</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,55 +1385,55 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>57.6790061628745</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.56509432741744</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.565094327417443</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>57.67900616287449</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362626</v>
+        <v>0.4251038644362564</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938167</v>
+        <v>9.028675106938165</v>
       </c>
       <c r="U13" t="n">
         <v>67.59134727882463</v>
@@ -1610,64 +1610,64 @@
         <v>68.39702598806991</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>32.9921028574883</v>
+      </c>
+      <c r="V14" t="n">
+        <v>27.25199763280366</v>
+      </c>
+      <c r="W14" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="G14" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.565094327417556</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>57.67900616287439</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087966</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964406</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998897</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644363763</v>
+        <v>0.4251038644362848</v>
       </c>
       <c r="T16" t="n">
-        <v>9.02867510693828</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882474</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692809</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740447</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298186</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077571523</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.18629299084042</v>
+        <v>33.18629299084046</v>
       </c>
       <c r="C17" t="n">
         <v>16.45497867838804</v>
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.18629299084046</v>
+        <v>33.18629299084025</v>
       </c>
       <c r="C20" t="n">
         <v>16.45497867838804</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20.33148213061479</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y20" t="n">
         <v>36.15695475068122</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C26" t="n">
         <v>145.969977391514</v>
@@ -2561,13 +2561,13 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E26" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F26" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.5667231186091</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V26" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W26" t="n">
         <v>129.514998713126</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V27" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W27" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.46358077952074</v>
+        <v>6.463580779520766</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V28" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W28" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X28" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C29" t="n">
         <v>145.969977391514</v>
@@ -2798,16 +2798,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E29" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F29" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G29" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H29" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V29" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W29" t="n">
         <v>129.514998713126</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.46358077952074</v>
+        <v>6.463580779520766</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039665</v>
+        <v>162.7012917039664</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678589</v>
+        <v>162.1029174678588</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931123</v>
+        <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.5667231186091</v>
+        <v>112.566723118609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007088</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350908</v>
+        <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670455</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222655</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257146</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520768</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U34" t="n">
-        <v>65.02625295140723</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951058</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998695</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880674</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.6475721559545</v>
+        <v>132.821289504242</v>
       </c>
       <c r="C11" t="n">
-        <v>143.6475721559545</v>
+        <v>132.821289504242</v>
       </c>
       <c r="D11" t="n">
-        <v>74.55966711750006</v>
+        <v>63.73338446578752</v>
       </c>
       <c r="E11" t="n">
-        <v>74.55966711750006</v>
+        <v>63.73338446578752</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>63.73338446578752</v>
       </c>
       <c r="G11" t="n">
-        <v>74.55966711750006</v>
+        <v>63.73338446578752</v>
       </c>
       <c r="H11" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439186</v>
+        <v>35.5670621543919</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439186</v>
+        <v>35.5670621543919</v>
       </c>
       <c r="K11" t="n">
-        <v>35.56706215439186</v>
+        <v>35.5670621543919</v>
       </c>
       <c r="L11" t="n">
-        <v>93.85293350575495</v>
+        <v>93.85293350575512</v>
       </c>
       <c r="M11" t="n">
-        <v>93.85293350575495</v>
+        <v>113.5162617942141</v>
       </c>
       <c r="N11" t="n">
-        <v>161.5659892339442</v>
+        <v>113.5162617942141</v>
       </c>
       <c r="O11" t="n">
-        <v>167.7946507613857</v>
+        <v>181.2293175224034</v>
       </c>
       <c r="P11" t="n">
-        <v>224.2795802246323</v>
+        <v>237.7142469856501</v>
       </c>
       <c r="Q11" t="n">
-        <v>273.5881039522797</v>
+        <v>237.7142469856501</v>
       </c>
       <c r="R11" t="n">
         <v>273.5881039522797</v>
@@ -5075,16 +5075,16 @@
         <v>270.9970995811509</v>
       </c>
       <c r="V11" t="n">
-        <v>270.9970995811509</v>
+        <v>201.9091945426964</v>
       </c>
       <c r="W11" t="n">
         <v>201.9091945426964</v>
       </c>
       <c r="X11" t="n">
-        <v>143.6475721559545</v>
+        <v>201.9091945426964</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.6475721559545</v>
+        <v>201.9091945426964</v>
       </c>
     </row>
     <row r="12">
@@ -5100,25 +5100,25 @@
         <v>5.471762079045593</v>
       </c>
       <c r="D12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K12" t="n">
         <v>57.17833035452099</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.53457651330345</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C13" t="n">
-        <v>84.53457651330345</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D13" t="n">
-        <v>84.53457651330345</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E13" t="n">
-        <v>152.2476322414927</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F13" t="n">
-        <v>152.2476322414927</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G13" t="n">
-        <v>152.2476322414927</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H13" t="n">
-        <v>152.2476322414927</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I13" t="n">
-        <v>152.2476322414927</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J13" t="n">
-        <v>152.2476322414927</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K13" t="n">
-        <v>152.2476322414927</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="L13" t="n">
-        <v>218.7445325328596</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="M13" t="n">
-        <v>230.6489004251059</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="N13" t="n">
-        <v>230.6489004251059</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="O13" t="n">
-        <v>243.6019192668793</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="P13" t="n">
-        <v>273.5881039522797</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="Q13" t="n">
-        <v>273.5881039522797</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
-        <v>273.5881039522797</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S13" t="n">
-        <v>273.1587061094148</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T13" t="n">
-        <v>264.0388322640227</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7647441035938</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V13" t="n">
-        <v>160.930070258212</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W13" t="n">
-        <v>92.60425922042982</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>84.83624308679541</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.53457651330345</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.735477194409</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F14" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G14" t="n">
         <v>5.471762079045593</v>
@@ -5285,43 +5285,43 @@
         <v>73.18481780723481</v>
       </c>
       <c r="M14" t="n">
-        <v>140.897873535424</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="N14" t="n">
-        <v>140.897873535424</v>
+        <v>120.6926675298135</v>
       </c>
       <c r="O14" t="n">
-        <v>201.7709597071529</v>
+        <v>188.4057232580027</v>
       </c>
       <c r="P14" t="n">
-        <v>201.7709597071529</v>
+        <v>188.4057232580027</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.0794834348002</v>
+        <v>237.7142469856501</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348002</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S14" t="n">
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811508</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>270.9970995811508</v>
+        <v>240.2627475305743</v>
       </c>
       <c r="V14" t="n">
         <v>212.735477194409</v>
       </c>
       <c r="W14" t="n">
-        <v>212.735477194409</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="X14" t="n">
-        <v>212.735477194409</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.735477194409</v>
+        <v>143.6475721559545</v>
       </c>
     </row>
     <row r="15">
@@ -5361,37 +5361,37 @@
         <v>5.471762079045593</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452135</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452135</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452135</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452135</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452135</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291734</v>
+        <v>50.92431750291717</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711526</v>
+        <v>37.32966388711517</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5413,70 +5413,70 @@
         <v>5.471762079045593</v>
       </c>
       <c r="C16" t="n">
-        <v>56.07409839756623</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D16" t="n">
-        <v>56.07409839756623</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>123.7871541257554</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F16" t="n">
-        <v>123.7871541257554</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G16" t="n">
-        <v>123.7871541257554</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H16" t="n">
-        <v>123.7871541257554</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I16" t="n">
-        <v>123.7871541257554</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="J16" t="n">
-        <v>123.7871541257554</v>
+        <v>140.897873535424</v>
       </c>
       <c r="K16" t="n">
-        <v>123.7871541257554</v>
+        <v>140.897873535424</v>
       </c>
       <c r="L16" t="n">
-        <v>126.8122337898334</v>
+        <v>140.897873535424</v>
       </c>
       <c r="M16" t="n">
-        <v>126.8122337898334</v>
+        <v>140.897873535424</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898334</v>
+        <v>140.897873535424</v>
       </c>
       <c r="O16" t="n">
-        <v>126.8122337898334</v>
+        <v>140.897873535424</v>
       </c>
       <c r="P16" t="n">
-        <v>126.8122337898334</v>
+        <v>194.525289518022</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180226</v>
+        <v>194.525289518022</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180226</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751576</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297654</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693364</v>
+        <v>116.701929669336</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395448</v>
+        <v>81.86725582395422</v>
       </c>
       <c r="W16" t="n">
-        <v>13.5414447861722</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537667</v>
+        <v>5.77342865253758</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5492,61 +5492,61 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673671</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N17" t="n">
-        <v>22.25055491761735</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="O17" t="n">
-        <v>89.96361064580657</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="P17" t="n">
-        <v>89.96361064580657</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="R17" t="n">
-        <v>157.6766663739958</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="S17" t="n">
-        <v>225.389722102185</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="T17" t="n">
-        <v>251.8111774290248</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290248</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V17" t="n">
         <v>273.5881039522797</v>
@@ -5555,10 +5555,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278998</v>
       </c>
       <c r="C20" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436694</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345343</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832889</v>
       </c>
       <c r="F20" t="n">
         <v>69.99619532673677</v>
@@ -5744,46 +5744,46 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
-        <v>5.471762079045593</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="J20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="K20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="L20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="M20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="N20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="O20" t="n">
-        <v>5.471762079045593</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="P20" t="n">
-        <v>73.18481780723481</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.18481780723481</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="R20" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="S20" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8750482240904</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
         <v>273.5881039522797</v>
@@ -5795,7 +5795,7 @@
         <v>253.051253315295</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994556</v>
       </c>
     </row>
     <row r="21">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278995</v>
       </c>
       <c r="C23" t="n">
         <v>166.3863781436691</v>
@@ -5972,55 +5972,55 @@
         <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832885</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99619532673682</v>
+        <v>69.9961953267368</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H23" t="n">
         <v>22.25055491761735</v>
       </c>
       <c r="I23" t="n">
-        <v>89.96361064580658</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="J23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="K23" t="n">
-        <v>157.6766663739958</v>
+        <v>89.96361064580657</v>
       </c>
       <c r="L23" t="n">
-        <v>225.3897221021851</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="M23" t="n">
-        <v>225.3897221021851</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N23" t="n">
-        <v>225.3897221021851</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="O23" t="n">
-        <v>225.3897221021851</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="P23" t="n">
-        <v>273.5881039522797</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="Q23" t="n">
-        <v>273.5881039522797</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R23" t="n">
-        <v>273.5881039522797</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S23" t="n">
-        <v>273.5881039522797</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T23" t="n">
-        <v>273.5881039522797</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
         <v>273.5881039522797</v>
@@ -6029,10 +6029,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923725</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847826</v>
+        <v>832.5759473847834</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522879</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776829</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977715</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6221,34 +6221,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="K26" t="n">
-        <v>212.0605107439876</v>
+        <v>463.5002213080315</v>
       </c>
       <c r="L26" t="n">
-        <v>641.0355111920504</v>
+        <v>463.5002213080315</v>
       </c>
       <c r="M26" t="n">
-        <v>714.9353771238276</v>
+        <v>537.4000872398088</v>
       </c>
       <c r="N26" t="n">
-        <v>1143.91037757189</v>
+        <v>966.3750876878717</v>
       </c>
       <c r="O26" t="n">
-        <v>1572.885378019953</v>
+        <v>1037.382119413669</v>
       </c>
       <c r="P26" t="n">
-        <v>1631.909750867343</v>
+        <v>1361.736811236923</v>
       </c>
       <c r="Q26" t="n">
-        <v>1733.232325042678</v>
+        <v>1632.184292732152</v>
       </c>
       <c r="R26" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6260,16 +6260,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V26" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W26" t="n">
-        <v>1463.070597286831</v>
+        <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="C27" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="D27" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="E27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="F27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="G27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="H27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024069</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024069</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024069</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024069</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294284</v>
+        <v>55.24086313024069</v>
       </c>
       <c r="T27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U27" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V27" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W27" t="n">
         <v>34.66464650085356</v>
       </c>
       <c r="X27" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
       <c r="Y27" t="n">
-        <v>34.66464650085356</v>
+        <v>51.05260029301436</v>
       </c>
     </row>
     <row r="28">
@@ -6370,58 +6370,58 @@
         <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>34.66464650085356</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="G28" t="n">
-        <v>34.66464650085356</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="H28" t="n">
-        <v>34.66464650085356</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="I28" t="n">
-        <v>34.66464650085356</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="J28" t="n">
-        <v>34.66464650085356</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9896676142813</v>
+        <v>92.01417297909272</v>
       </c>
       <c r="L28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="M28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="N28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="O28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="P28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.9896676142813</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="S28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="T28" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U28" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V28" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W28" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X28" t="n">
         <v>34.66464650085356</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847829</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522881</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776831</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.7160714977717</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6464,28 +6464,28 @@
         <v>148.7795367731729</v>
       </c>
       <c r="K29" t="n">
-        <v>411.1891097446228</v>
+        <v>544.9803681208614</v>
       </c>
       <c r="L29" t="n">
-        <v>472.0144244801292</v>
+        <v>708.9674436134441</v>
       </c>
       <c r="M29" t="n">
-        <v>900.989424928192</v>
+        <v>1137.942444061507</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.637480546441</v>
+        <v>1213.996057132052</v>
       </c>
       <c r="O29" t="n">
-        <v>1272.637480546441</v>
+        <v>1642.971057580115</v>
       </c>
       <c r="P29" t="n">
-        <v>1331.661853393831</v>
+        <v>1642.971057580115</v>
       </c>
       <c r="Q29" t="n">
-        <v>1602.10933488906</v>
+        <v>1694.819024691905</v>
       </c>
       <c r="R29" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6506,7 +6506,7 @@
         <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="30">
@@ -6543,40 +6543,40 @@
         <v>34.66464650085356</v>
       </c>
       <c r="K30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="L30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6619,46 +6619,46 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>144.87312969628</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K31" t="n">
-        <v>144.87312969628</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L31" t="n">
-        <v>210.0320876678294</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M31" t="n">
-        <v>210.0320876678294</v>
+        <v>96.11905765341791</v>
       </c>
       <c r="N31" t="n">
-        <v>210.0320876678294</v>
+        <v>180.0459029824291</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0320876678294</v>
+        <v>180.0459029824291</v>
       </c>
       <c r="P31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="R31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V31" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923733</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847834</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J32" t="n">
-        <v>290.2466682948504</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K32" t="n">
-        <v>352.7073828592675</v>
+        <v>342.0074047068069</v>
       </c>
       <c r="L32" t="n">
-        <v>624.7517169913632</v>
+        <v>766.0059390746552</v>
       </c>
       <c r="M32" t="n">
-        <v>1053.726717439426</v>
+        <v>1194.980939522718</v>
       </c>
       <c r="N32" t="n">
-        <v>1233.463670185359</v>
+        <v>1194.980939522718</v>
       </c>
       <c r="O32" t="n">
-        <v>1304.470701911157</v>
+        <v>1265.987971248516</v>
       </c>
       <c r="P32" t="n">
-        <v>1694.819024691905</v>
+        <v>1656.336294029265</v>
       </c>
       <c r="Q32" t="n">
-        <v>1694.819024691905</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="R32" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246771</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V33" t="n">
-        <v>63.93154393779443</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
       </c>
       <c r="X33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.05260029301436</v>
+        <v>34.66464650085356</v>
       </c>
     </row>
     <row r="34">
@@ -6856,46 +6856,46 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>144.8731296962799</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>144.8731296962799</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678296</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5032181935661</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042659</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300128</v>
+        <v>105.5764649300127</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335929</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767097</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582395</v>
@@ -6932,34 +6932,34 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>83.72603010379387</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K35" t="n">
-        <v>354.819842698259</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L35" t="n">
-        <v>716.0817874181325</v>
+        <v>648.9429198522027</v>
       </c>
       <c r="M35" t="n">
-        <v>811.880055572406</v>
+        <v>648.9429198522027</v>
       </c>
       <c r="N35" t="n">
-        <v>909.832070865447</v>
+        <v>746.8949351452438</v>
       </c>
       <c r="O35" t="n">
-        <v>1002.737504813741</v>
+        <v>1108.156879865117</v>
       </c>
       <c r="P35" t="n">
-        <v>1363.999449533615</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q35" t="n">
-        <v>1437.745818867902</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
@@ -6968,10 +6968,10 @@
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336783</v>
       </c>
       <c r="W35" t="n">
         <v>1256.51157880286</v>
@@ -6980,7 +6980,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821894</v>
+        <v>982.492146582189</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M36" t="n">
         <v>36.11675336931264</v>
@@ -7087,40 +7087,40 @@
         <v>29.19288442180796</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180796</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180796</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837062</v>
+        <v>111.6373186551286</v>
       </c>
       <c r="T37" t="n">
         <v>125.8253588837062</v>
@@ -7151,16 +7151,16 @@
         <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585563</v>
+        <v>715.3890428585562</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E38" t="n">
-        <v>459.375572630329</v>
+        <v>459.3755726303288</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398538</v>
+        <v>293.5582524398535</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
@@ -7169,31 +7169,31 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
-        <v>271.4636959260336</v>
+        <v>548.3665238589937</v>
       </c>
       <c r="L38" t="n">
-        <v>632.7256406459071</v>
+        <v>909.6284685788672</v>
       </c>
       <c r="M38" t="n">
-        <v>993.9875853657807</v>
+        <v>968.0557686809127</v>
       </c>
       <c r="N38" t="n">
-        <v>993.9875853657807</v>
+        <v>1066.007783973954</v>
       </c>
       <c r="O38" t="n">
-        <v>1086.893019314075</v>
+        <v>1158.913217922248</v>
       </c>
       <c r="P38" t="n">
-        <v>1177.644488711739</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170513</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743782</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N39" t="n">
         <v>36.11675336931264</v>
@@ -7293,10 +7293,10 @@
         <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
     </row>
     <row r="40">
@@ -7321,37 +7321,37 @@
         <v>29.19288442180796</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180796</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180796</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180796</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180796</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="K40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837062</v>
+        <v>103.8833803209972</v>
       </c>
       <c r="R40" t="n">
         <v>125.8253588837062</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767104</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585565</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303293</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F41" t="n">
         <v>293.558252439854</v>
@@ -7406,34 +7406,34 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J41" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K41" t="n">
-        <v>271.4636959260336</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="L41" t="n">
-        <v>354.1874128840363</v>
+        <v>548.3665238589937</v>
       </c>
       <c r="M41" t="n">
-        <v>715.4493576039099</v>
+        <v>644.1647920132674</v>
       </c>
       <c r="N41" t="n">
-        <v>813.4013728969509</v>
+        <v>742.1168073063085</v>
       </c>
       <c r="O41" t="n">
-        <v>1002.737504813741</v>
+        <v>742.1168073063085</v>
       </c>
       <c r="P41" t="n">
-        <v>1363.999449533615</v>
+        <v>1103.378752026182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1437.745818867902</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
@@ -7448,13 +7448,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W41" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X41" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821895</v>
       </c>
     </row>
     <row r="42">
@@ -7506,16 +7506,16 @@
         <v>29.19288442180796</v>
       </c>
       <c r="P42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T42" t="n">
         <v>36.11675336931264</v>
@@ -7570,28 +7570,28 @@
         <v>29.19288442180796</v>
       </c>
       <c r="K43" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837062</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="S43" t="n">
         <v>125.8253588837062</v>
@@ -7643,31 +7643,31 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379387</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J44" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K44" t="n">
-        <v>271.4636959260336</v>
+        <v>374.7314044616688</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7256406459071</v>
+        <v>457.4551214196716</v>
       </c>
       <c r="M44" t="n">
-        <v>728.5239088001806</v>
+        <v>553.2533895739454</v>
       </c>
       <c r="N44" t="n">
-        <v>728.5239088001806</v>
+        <v>651.2054048669864</v>
       </c>
       <c r="O44" t="n">
-        <v>821.4293427484748</v>
+        <v>895.4793361163527</v>
       </c>
       <c r="P44" t="n">
-        <v>1182.691287468348</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q44" t="n">
-        <v>1305.020017845423</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743782</v>
@@ -7710,52 +7710,52 @@
         <v>29.19288442180796</v>
       </c>
       <c r="E45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="U45" t="n">
         <v>36.11675336931264</v>
@@ -7792,25 +7792,25 @@
         <v>29.19288442180796</v>
       </c>
       <c r="F46" t="n">
-        <v>31.39397561677764</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G46" t="n">
-        <v>31.39397561677764</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H46" t="n">
-        <v>31.39397561677764</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M46" t="n">
         <v>125.8253588837062</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>65.32597900811963</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>119.8356459319417</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>12.96211605119993</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>67.53053890237811</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>371.8683694066227</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>356.486249876281</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O26" t="n">
-        <v>361.5838067901667</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.94776795231606</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.96633137184914</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725119</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.087938539340513</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>104.2037987445214</v>
       </c>
       <c r="M29" t="n">
-        <v>358.6617520366522</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N29" t="n">
-        <v>298.5802449976816</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>149.2908438169258</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>101.9040108755741</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065692</v>
+        <v>140.2857513472118</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10273,22 +10273,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>166.2054551502211</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681486</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>434.3676631324684</v>
+        <v>366.8416359922645</v>
       </c>
       <c r="M32" t="n">
-        <v>358.6617520366522</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N32" t="n">
-        <v>129.5568878622427</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.643434336125</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>188.6209048561128</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>281.3517452140109</v>
+        <v>121.8723555424233</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P35" t="n">
-        <v>283.1708784343307</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.404722372910822</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10744,25 +10744,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>18.8308462317596</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>279.699826194909</v>
       </c>
       <c r="L38" t="n">
-        <v>281.3517452140109</v>
+        <v>281.3517452140108</v>
       </c>
       <c r="M38" t="n">
-        <v>268.1451278440404</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>9.927974068462945</v>
+        <v>152.4882421733818</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10981,22 +10981,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681486</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.623125085572035</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>281.3517452140108</v>
       </c>
       <c r="M41" t="n">
-        <v>324.4004775890963</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>97.40474542272341</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983419</v>
+        <v>283.1708784343305</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>154.9116452626707</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.3108167026617</v>
       </c>
       <c r="L44" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
         <v>283.1708784343306</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>25.72488113645475</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>14.45424530522817</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313839</v>
+        <v>96.86936004331395</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
@@ -23273,7 +23273,7 @@
         <v>195.9592819557577</v>
       </c>
       <c r="H11" t="n">
-        <v>46.73479145795658</v>
+        <v>57.45281128315197</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>32.99210285748827</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W11" t="n">
-        <v>63.68306705247349</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X11" t="n">
-        <v>94.73256900828372</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
         <v>168.2370477912246</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.266386031384</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>80.13804573086165</v>
+        <v>80.13804573086156</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945873</v>
+        <v>69.75768280651732</v>
       </c>
       <c r="E14" t="n">
-        <v>164.6680117952764</v>
+        <v>164.6680117952763</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4468135324599</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676879</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>115.1318174460266</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417468</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748838</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>52.4041913996339</v>
+        <v>82.83119992970452</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405435</v>
+        <v>63.68306705247352</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711583</v>
+        <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
         <v>168.2370477912247</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.060573933704291e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>727904.9822534809</v>
+        <v>727904.9822534808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>727904.9822534812</v>
+        <v>727904.9822534811</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915209.5745141379</v>
+        <v>915209.5745141377</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876144.4613618517</v>
+        <v>876144.4613618515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876144.4613618517</v>
+        <v>876144.4613618515</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>588813.3738729118</v>
       </c>
       <c r="C2" t="n">
-        <v>588813.3738729119</v>
+        <v>588813.373872912</v>
       </c>
       <c r="D2" t="n">
-        <v>588813.3738729117</v>
+        <v>588813.3738729118</v>
       </c>
       <c r="E2" t="n">
-        <v>506441.3273558172</v>
+        <v>506441.3273558174</v>
       </c>
       <c r="F2" t="n">
-        <v>506441.3273558173</v>
+        <v>506441.3273558174</v>
       </c>
       <c r="G2" t="n">
         <v>590091.571245829</v>
@@ -26335,25 +26335,25 @@
         <v>590091.571245829</v>
       </c>
       <c r="J2" t="n">
-        <v>590091.5712458288</v>
+        <v>590091.5712458286</v>
       </c>
       <c r="K2" t="n">
-        <v>590091.5712458288</v>
+        <v>590091.5712458289</v>
       </c>
       <c r="L2" t="n">
-        <v>590091.5712458286</v>
+        <v>590091.571245829</v>
       </c>
       <c r="M2" t="n">
+        <v>590091.5712458299</v>
+      </c>
+      <c r="N2" t="n">
         <v>590091.5712458295</v>
       </c>
-      <c r="N2" t="n">
-        <v>590091.5712458297</v>
-      </c>
       <c r="O2" t="n">
-        <v>590091.5712458296</v>
+        <v>590091.5712458298</v>
       </c>
       <c r="P2" t="n">
-        <v>590091.5712458298</v>
+        <v>590091.5712458293</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324348</v>
+        <v>105664.0744324347</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105664.0744324348</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363346</v>
+        <v>17695.67856363344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.02019750811</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="H4" t="n">
         <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325743</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91633.65323722016</v>
+        <v>91629.24566007218</v>
       </c>
       <c r="C6" t="n">
-        <v>91633.65323722028</v>
+        <v>91629.24566007241</v>
       </c>
       <c r="D6" t="n">
-        <v>91633.65323722005</v>
+        <v>91629.24566007218</v>
       </c>
       <c r="E6" t="n">
-        <v>-164161.7626468135</v>
+        <v>-164450.2117636755</v>
       </c>
       <c r="F6" t="n">
-        <v>120043.6216571857</v>
+        <v>119755.1725403239</v>
       </c>
       <c r="G6" t="n">
-        <v>22191.19648992753</v>
+        <v>22191.19648992771</v>
       </c>
       <c r="H6" t="n">
         <v>127855.2709223624</v>
       </c>
       <c r="I6" t="n">
-        <v>127855.2709223623</v>
+        <v>127855.2709223625</v>
       </c>
       <c r="J6" t="n">
-        <v>-58649.24320069444</v>
+        <v>-58649.24320069439</v>
       </c>
       <c r="K6" t="n">
-        <v>107975.5651425578</v>
+        <v>107975.5651425581</v>
       </c>
       <c r="L6" t="n">
-        <v>2311.490710122918</v>
+        <v>2311.490710123384</v>
       </c>
       <c r="M6" t="n">
-        <v>96290.75564059257</v>
+        <v>96290.7556405931</v>
       </c>
       <c r="N6" t="n">
-        <v>113986.4342042263</v>
+        <v>113986.4342042261</v>
       </c>
       <c r="O6" t="n">
-        <v>42838.414006718</v>
+        <v>42838.41400671834</v>
       </c>
       <c r="P6" t="n">
-        <v>113986.4342042264</v>
+        <v>113986.434204226</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
     </row>
     <row r="4">
@@ -26802,13 +26802,13 @@
         <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="H4" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J4" t="n">
         <v>433.3080812606695</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454183</v>
+        <v>22.1195982045418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688515</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,31 +28111,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886107</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634113</v>
+        <v>166.2307368295313</v>
       </c>
       <c r="N11" t="n">
-        <v>212.59031289111</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O11" t="n">
-        <v>155.5824211173718</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="Q11" t="n">
+        <v>103.3174553280052</v>
+      </c>
+      <c r="R11" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="R11" t="n">
-        <v>113.8687281338978</v>
       </c>
       <c r="S11" t="n">
         <v>195.7140436393247</v>
@@ -28172,7 +28172,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>198.3412804185601</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065692</v>
+        <v>148.1372797445714</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955194</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28254,7 +28254,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>215.3716501612691</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -28269,28 +28269,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>74.71172711439593</v>
+        <v>178.0904440780981</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>116.1549064024252</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>160.9208955691381</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.9853613927381</v>
+        <v>199.382387380808</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766806</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>146.6132903821819</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>214.7658150514812</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N14" t="n">
-        <v>144.1932869030401</v>
+        <v>192.1810138955437</v>
       </c>
       <c r="O14" t="n">
-        <v>210.778809646955</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R14" t="n">
-        <v>113.8687281338978</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600111</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="15">
@@ -28424,34 +28424,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L15" t="n">
-        <v>135.5688827973809</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725119</v>
+        <v>14.79321300487298</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290986</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.0581031398714</v>
+        <v>158.286959983786</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28485,13 +28485,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>218.4500239600111</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>215.3716501612691</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -28503,55 +28503,55 @@
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>147.7494808688102</v>
+        <v>216.1465068568801</v>
       </c>
       <c r="J16" t="n">
-        <v>109.6934180900282</v>
+        <v>178.0904440780981</v>
       </c>
       <c r="K16" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>104.8607394746419</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O16" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>110.1177504068044</v>
+        <v>164.2868574599337</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.382387380808</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="17">
@@ -28579,49 +28579,49 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H17" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N17" t="n">
-        <v>144.1932869030401</v>
+        <v>212.5903128911099</v>
       </c>
       <c r="O17" t="n">
-        <v>217.6878698049957</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537015</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.0404603241949</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273946</v>
+        <v>261.3475534258565</v>
       </c>
       <c r="T17" t="n">
-        <v>247.7034570014082</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U17" t="n">
         <v>251.4421268174995</v>
       </c>
       <c r="V17" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28752,16 +28752,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28816,49 +28816,49 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>138.7119396886107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N20" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P20" t="n">
-        <v>229.7915656417714</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>247.8473145883313</v>
+        <v>208.902143515779</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28989,16 +28989,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29059,31 +29059,31 @@
         <v>256.4477569426808</v>
       </c>
       <c r="J23" t="n">
-        <v>207.1089656766806</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>227.9724324214517</v>
+        <v>186.2637451473612</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N23" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P23" t="n">
-        <v>210.0797738457163</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898694</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
@@ -29092,10 +29092,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29226,16 +29226,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29293,16 +29293,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
-        <v>138.7119396886107</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>221.0151182874286</v>
@@ -29314,16 +29314,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
+        <v>154.3548849970302</v>
+      </c>
+      <c r="Q26" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="Q26" t="n">
-        <v>204.041700904349</v>
-      </c>
       <c r="R26" t="n">
-        <v>182.2138048017995</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29360,7 +29360,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>200.4107621537287</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -29372,40 +29372,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>78.29747578532816</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>86.55432042970195</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T27" t="n">
-        <v>197.4218470422748</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U27" t="n">
         <v>221.0151182874286</v>
@@ -29417,7 +29417,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -29442,7 +29442,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>204.0878360342885</v>
       </c>
       <c r="G28" t="n">
         <v>167.689771139254</v>
@@ -29454,31 +29454,31 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.71172711439593</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
+        <v>102.5727324697714</v>
+      </c>
+      <c r="L28" t="n">
         <v>221.0151182874286</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q28" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
-        <v>221.0151182874286</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
         <v>218.8751278244474</v>
@@ -29536,7 +29536,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
-        <v>85.87243305890499</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
         <v>221.0151182874286</v>
@@ -29548,10 +29548,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P29" t="n">
-        <v>221.0151182874286</v>
+        <v>59.49052877812724</v>
       </c>
       <c r="Q29" t="n">
         <v>221.0151182874286</v>
@@ -29560,7 +29560,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>78.29747578532816</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346601</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>122.5676255483074</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955194</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29691,16 +29691,16 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>221.0151182874286</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>167.6222327145121</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.0286846798766</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29767,22 +29767,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
+        <v>15.99192291969676</v>
+      </c>
+      <c r="L32" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="N32" t="n">
-        <v>196.1888765619421</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
@@ -29791,13 +29791,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
+        <v>182.2138048017995</v>
+      </c>
+      <c r="S32" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="S32" t="n">
-        <v>195.7140436393247</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29846,34 +29846,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175258</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725119</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>112.9360494605145</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>150.4354315864262</v>
       </c>
       <c r="R33" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29891,7 +29891,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="X33" t="n">
-        <v>221.0151182874286</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -29928,25 +29928,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>221.0151182874286</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>167.6222327145123</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698532</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>170.3717539508206</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
@@ -30007,7 +30007,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J35" t="n">
-        <v>138.7119396886107</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
         <v>243.1347164919704</v>
@@ -30016,7 +30016,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M35" t="n">
-        <v>243.1347164919704</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N35" t="n">
         <v>243.1347164919704</v>
@@ -30031,10 +30031,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>173.8090824288887</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T35" t="n">
         <v>243.1347164919704</v>
@@ -30077,40 +30077,40 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7848683666891</v>
+        <v>142.7786753843706</v>
       </c>
       <c r="H36" t="n">
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346601</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>85.18410411943407</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30159,19 +30159,19 @@
         <v>167.689771139254</v>
       </c>
       <c r="H37" t="n">
-        <v>159.857510195687</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="I37" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>207.3019781525517</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>87.92094228424942</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.0286846798766</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30195,7 +30195,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T37" t="n">
-        <v>227.4786990669493</v>
+        <v>241.8100528331894</v>
       </c>
       <c r="U37" t="n">
         <v>243.1347164919704</v>
@@ -30253,10 +30253,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M38" t="n">
+        <v>205.3862639139621</v>
+      </c>
+      <c r="N38" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="N38" t="n">
-        <v>144.1932869030401</v>
       </c>
       <c r="O38" t="n">
         <v>243.1347164919704</v>
@@ -30265,10 +30265,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.2228758263636</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R38" t="n">
-        <v>243.1347164919704</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S38" t="n">
         <v>243.1347164919704</v>
@@ -30320,34 +30320,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N39" t="n">
-        <v>73.06323650723343</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30365,7 +30365,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>211.4554366261598</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.689771139254</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="H40" t="n">
         <v>159.857510195687</v>
@@ -30405,28 +30405,28 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>200.1812925322949</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R40" t="n">
-        <v>164.4066131828346</v>
+        <v>186.5702278926417</v>
       </c>
       <c r="S40" t="n">
         <v>218.8751278244474</v>
@@ -30484,31 +30484,31 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K41" t="n">
-        <v>243.1347164919704</v>
+        <v>156.3003623287078</v>
       </c>
       <c r="L41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="M41" t="n">
-        <v>186.8793667469145</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="O41" t="n">
+        <v>149.2908438169256</v>
+      </c>
+      <c r="P41" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="P41" t="n">
-        <v>191.6349384279591</v>
       </c>
       <c r="Q41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="R41" t="n">
-        <v>182.2138048017995</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919704</v>
@@ -30557,40 +30557,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175258</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955194</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725119</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290986</v>
+        <v>92.10601671059126</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S42" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T42" t="n">
-        <v>204.4156540599563</v>
+        <v>197.4218470422748</v>
       </c>
       <c r="U42" t="n">
         <v>224.641496683099</v>
@@ -30642,22 +30642,22 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>200.1812925322949</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>180.1007599110096</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q43" t="n">
         <v>130.9853613927381</v>
@@ -30666,7 +30666,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T43" t="n">
         <v>227.4786990669493</v>
@@ -30730,16 +30730,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>144.1932869030401</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.40021816808128</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919704</v>
@@ -30782,7 +30782,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>163.0272407248553</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346601</v>
+        <v>83.34002595346591</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175258</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725111</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290986</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30830,7 +30830,7 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U45" t="n">
-        <v>224.641496683099</v>
+        <v>231.6353037007805</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>148.3823458491678</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.689771139254</v>
@@ -30873,7 +30873,7 @@
         <v>159.857510195687</v>
       </c>
       <c r="I46" t="n">
-        <v>243.1347164919704</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
         <v>109.6934180900282</v>
@@ -30882,19 +30882,19 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698532</v>
+        <v>201.7388524323766</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681486</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>95.66350510157618</v>
       </c>
       <c r="Q46" t="n">
         <v>130.9853613927381</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K12" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R12" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I13" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K15" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R15" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I16" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K18" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R18" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I19" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K21" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R21" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I22" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K24" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R24" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I25" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K27" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R27" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I28" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K30" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R30" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I31" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K33" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R33" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I34" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K36" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R36" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I37" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K39" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I40" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K42" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R42" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I43" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620745</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115713</v>
+        <v>4.562061982115722</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351311</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490846</v>
+        <v>37.80781722490853</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457605</v>
+        <v>56.66411735457616</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235589</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317966</v>
+        <v>78.2187883331798</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363618</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921877</v>
+        <v>75.05491231921891</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768644</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146329</v>
+        <v>48.10461329146338</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697931</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421451</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991732</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496589</v>
+        <v>0.03563675904496595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532125</v>
+        <v>0.238341838353213</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200768</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143518</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967786</v>
+        <v>22.5180769296779</v>
       </c>
       <c r="K45" t="n">
-        <v>38.4869800993431</v>
+        <v>38.48698009934317</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191135</v>
+        <v>51.75049433191144</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221529</v>
+        <v>60.3903859722154</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169803</v>
+        <v>61.98873979169814</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608211</v>
+        <v>56.70758642608221</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606214</v>
+        <v>45.51283753606222</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399961</v>
       </c>
       <c r="R45" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516905</v>
+        <v>4.427095111516913</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938695</v>
+        <v>0.9606848659938713</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218507</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540741</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229857</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I46" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593431</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338301</v>
+        <v>14.12711781338304</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650061</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388662</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906182</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678756</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453764</v>
+        <v>28.24333647453769</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111451</v>
+        <v>24.16705354111456</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597161</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947714</v>
+        <v>8.98453448694773</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975084</v>
+        <v>3.482279136975091</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583149</v>
+        <v>0.8537669245583165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540028</v>
+        <v>30.39929300540031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662938</v>
+        <v>58.87461752662951</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>19.86194776612023</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="O11" t="n">
-        <v>6.291577300446005</v>
-      </c>
       <c r="P11" t="n">
-        <v>57.05548430630971</v>
+        <v>57.05548430630982</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388623</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>36.23621915821168</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35468,28 +35468,28 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>52.22885684391455</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35550,43 +35550,43 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>67.16858615289586</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>12.02461403257209</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>13.08385741593267</v>
+        <v>54.16910705312909</v>
       </c>
       <c r="P13" t="n">
-        <v>30.28907543979835</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,25 +35653,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>47.98772699250371</v>
+      </c>
+      <c r="O14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>61.4879658300292</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388611</v>
+        <v>49.80658962388628</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>36.23621915821165</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068634</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>52.22885684391491</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>52.22885684391465</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35781,34 +35781,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>51.11347102880873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.055636024321161</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>54.16910705312932</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35875,7 +35875,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -35893,31 +35893,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="O17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806991</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="T17" t="n">
-        <v>26.68833871397957</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,10 +36112,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36136,25 +36136,25 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26.68833871397953</v>
+      </c>
+      <c r="S20" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>65.63350978653176</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36349,19 +36349,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451692</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I23" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>68.39702598806993</v>
+        <v>26.68833871397953</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>48.6852341920148</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.96438733281771</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>179.1877416597314</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L26" t="n">
-        <v>433.3080812606695</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401735</v>
+        <v>74.64632922401746</v>
       </c>
       <c r="N26" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="O26" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050293</v>
       </c>
       <c r="P26" t="n">
-        <v>59.62057863372713</v>
+        <v>327.6310018416707</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.3460345205401</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>76.76764485747823</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>25.30107464810388</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4.230568522450834</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36701,7 +36701,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.59327124515378</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>16.55348867895032</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>57.928814624484</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>120.5303243569977</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>119.2100148371079</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>56.60850510459402</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,34 +36829,34 @@
         <v>32.96438733281771</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881794</v>
+        <v>82.30317859881798</v>
       </c>
       <c r="K29" t="n">
-        <v>265.0601747186363</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404681</v>
+        <v>165.6435105985684</v>
       </c>
       <c r="M29" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
-        <v>375.40207638207</v>
+        <v>76.8218313843886</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="P29" t="n">
-        <v>59.62057863372713</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.1792742376045</v>
+        <v>52.37168395130371</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562908</v>
       </c>
       <c r="S29" t="n">
-        <v>25.30107464810389</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>111.3217001974004</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>65.81712926419134</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>62.07516278036803</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.77459124142545</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>30.2890754397984</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777746</v>
+        <v>82.30317859881801</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314859</v>
+        <v>195.1796645794282</v>
       </c>
       <c r="L32" t="n">
-        <v>274.7922566990866</v>
+        <v>428.2813478463114</v>
       </c>
       <c r="M32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
-        <v>181.5524775211447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>71.72427447050279</v>
+        <v>71.72427447050296</v>
       </c>
       <c r="P32" t="n">
-        <v>394.291235132069</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.37168395130374</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562902</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>27.82383976760461</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>16.55348867895032</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>111.3217001974004</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>65.81712926419154</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>60.25400354401625</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>273.8321339338032</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L35" t="n">
+        <v>205.431665601012</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>98.94142958893043</v>
+      </c>
+      <c r="O35" t="n">
         <v>364.9110552725995</v>
       </c>
-      <c r="M35" t="n">
-        <v>96.76592742855915</v>
-      </c>
-      <c r="N35" t="n">
-        <v>98.94142958893029</v>
-      </c>
-      <c r="O35" t="n">
-        <v>93.84387267504462</v>
-      </c>
       <c r="P35" t="n">
-        <v>364.9110552725995</v>
+        <v>81.74017683826905</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584545</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454178</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.27720629628344</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.33135376624006</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769042</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="L38" t="n">
         <v>364.9110552725995</v>
       </c>
       <c r="M38" t="n">
-        <v>364.9110552725995</v>
+        <v>59.01747485055098</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504462</v>
+        <v>93.84387267504476</v>
       </c>
       <c r="P38" t="n">
-        <v>91.66815090673187</v>
+        <v>234.2284190116509</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.3870317765395</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017085</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454178</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37631,37 +37631,37 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>6.993807017681491</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75.44494535271642</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.16361470980708</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769042</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858861</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9110552725995</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893029</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O41" t="n">
-        <v>191.248618097768</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>364.9110552725995</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584545</v>
+        <v>229.4029274185162</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454178</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>73.34897139500053</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>24.25958866752297</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769042</v>
+        <v>189.5220457803522</v>
       </c>
       <c r="L44" t="n">
-        <v>364.9110552725995</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855915</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504462</v>
+        <v>246.7413446963295</v>
       </c>
       <c r="P44" t="n">
         <v>364.9110552725995</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.5643741182572</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R44" t="n">
-        <v>86.64579282662562</v>
+        <v>60.92091169017091</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454178</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38078,55 +38078,55 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>6.993807017681491</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.223324439363307</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>95.3852356231602</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
